--- a/tests/bin/OpenRefine_exports/2_BR1_2019.xlsx
+++ b/tests/bin/OpenRefine_exports/2_BR1_2019.xlsx
@@ -48,12 +48,6 @@
     <t>Data_Type</t>
   </si>
   <si>
-    <t>R4_Month</t>
-  </si>
-  <si>
-    <t>R4_Count</t>
-  </si>
-  <si>
     <t>“Pouring Jewish Water into Fascist Wine": Untold Stories of (Catholic) Jews From the Archive of Mussolini's Jesuit Pietro Tacchi Venturi</t>
   </si>
   <si>
@@ -454,6 +448,12 @@
   </si>
   <si>
     <t>Section_Type</t>
+  </si>
+  <si>
+    <t>Usage_Date</t>
+  </si>
+  <si>
+    <t>Usage_Count</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J74"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,45 +812,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
         <v>144</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1">
         <v>43405</v>
@@ -861,34 +861,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1">
         <v>43556</v>
@@ -899,34 +899,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1">
         <v>43282</v>
@@ -937,34 +937,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1">
         <v>43282</v>
@@ -975,34 +975,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1">
         <v>43282</v>
@@ -1013,34 +1013,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1">
         <v>43344</v>
@@ -1051,34 +1051,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1">
         <v>43466</v>
@@ -1089,34 +1089,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1">
         <v>43497</v>
@@ -1127,34 +1127,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1">
         <v>43617</v>
@@ -1165,34 +1165,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1">
         <v>43282</v>
@@ -1203,34 +1203,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1">
         <v>43405</v>
@@ -1241,34 +1241,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1">
         <v>43525</v>
@@ -1279,34 +1279,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1">
         <v>43556</v>
@@ -1317,34 +1317,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1">
         <v>43282</v>
@@ -1355,34 +1355,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1">
         <v>43344</v>
@@ -1393,34 +1393,34 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1">
         <v>43374</v>
@@ -1431,34 +1431,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1">
         <v>43525</v>
@@ -1469,34 +1469,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1">
         <v>43556</v>
@@ -1507,34 +1507,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K20" s="1">
         <v>43374</v>
@@ -1545,34 +1545,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K21" s="1">
         <v>43556</v>
@@ -1583,34 +1583,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K22" s="1">
         <v>43525</v>
@@ -1621,34 +1621,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K23" s="1">
         <v>43374</v>
@@ -1659,34 +1659,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K24" s="1">
         <v>43556</v>
@@ -1697,34 +1697,34 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K25" s="1">
         <v>43466</v>
@@ -1735,34 +1735,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K26" s="1">
         <v>43405</v>
@@ -1773,34 +1773,34 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1">
         <v>43556</v>
@@ -1811,34 +1811,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K28" s="1">
         <v>43497</v>
@@ -1849,34 +1849,34 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K29" s="1">
         <v>43497</v>
@@ -1887,34 +1887,34 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
-      </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" s="1">
         <v>43344</v>
@@ -1925,34 +1925,34 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="1">
         <v>43374</v>
@@ -1963,34 +1963,34 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s">
-        <v>76</v>
-      </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K32" s="1">
         <v>43282</v>
@@ -2001,34 +2001,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>76</v>
-      </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1">
         <v>43344</v>
@@ -2039,34 +2039,34 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
-      </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K34" s="1">
         <v>43374</v>
@@ -2077,34 +2077,34 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>76</v>
-      </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K35" s="1">
         <v>43497</v>
@@ -2115,34 +2115,34 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s">
-        <v>76</v>
-      </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36" s="1">
         <v>43556</v>
@@ -2153,34 +2153,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K37" s="1">
         <v>43617</v>
@@ -2191,34 +2191,34 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" t="s">
-        <v>80</v>
-      </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K38" s="1">
         <v>43466</v>
@@ -2229,34 +2229,34 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" t="s">
-        <v>84</v>
-      </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K39" s="1">
         <v>43344</v>
@@ -2267,34 +2267,34 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
-      </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K40" s="1">
         <v>43374</v>
@@ -2305,34 +2305,34 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" t="s">
-        <v>84</v>
-      </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K41" s="1">
         <v>43435</v>
@@ -2343,34 +2343,34 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
-      </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K42" s="1">
         <v>43525</v>
@@ -2381,34 +2381,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
-      </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K43" s="1">
         <v>43556</v>
@@ -2419,34 +2419,34 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>85</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" t="s">
         <v>86</v>
       </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K44" s="1">
         <v>43344</v>
@@ -2457,34 +2457,34 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>90</v>
       </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" t="s">
-        <v>92</v>
-      </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K45" s="1">
         <v>43374</v>
@@ -2495,34 +2495,34 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>90</v>
       </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K46" s="1">
         <v>43556</v>
@@ -2533,34 +2533,34 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
-      </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K47" s="1">
         <v>43586</v>
@@ -2571,34 +2571,34 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K48" s="1">
         <v>43344</v>
@@ -2609,34 +2609,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K49" s="1">
         <v>43374</v>
@@ -2647,34 +2647,34 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>94</v>
       </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K50" s="1">
         <v>43435</v>
@@ -2685,34 +2685,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
         <v>93</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
         <v>94</v>
       </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
-      </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K51" s="1">
         <v>43497</v>
@@ -2723,34 +2723,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>93</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
         <v>94</v>
       </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
-      </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K52" s="1">
         <v>43525</v>
@@ -2761,34 +2761,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
         <v>93</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
         <v>94</v>
       </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" t="s">
-        <v>96</v>
-      </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K53" s="1">
         <v>43556</v>
@@ -2799,34 +2799,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
         <v>97</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>98</v>
       </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
-      </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K54" s="1">
         <v>43435</v>
@@ -2837,34 +2837,34 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
         <v>97</v>
       </c>
-      <c r="B55" t="s">
+      <c r="F55" t="s">
         <v>98</v>
       </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" t="s">
-        <v>100</v>
-      </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K55" s="1">
         <v>43466</v>
@@ -2875,34 +2875,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
         <v>97</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>98</v>
       </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>100</v>
-      </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K56" s="1">
         <v>43497</v>
@@ -2913,34 +2913,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
         <v>101</v>
       </c>
-      <c r="B57" t="s">
+      <c r="F57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" t="s">
-        <v>104</v>
-      </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K57" s="1">
         <v>43586</v>
@@ -2951,34 +2951,34 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
         <v>105</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
         <v>106</v>
       </c>
-      <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>108</v>
-      </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K58" s="1">
         <v>43497</v>
@@ -2989,34 +2989,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
         <v>109</v>
       </c>
-      <c r="B59" t="s">
+      <c r="F59" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
-      </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K59" s="1">
         <v>43282</v>
@@ -3027,34 +3027,34 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
       </c>
-      <c r="B60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" t="s">
-        <v>115</v>
-      </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K60" s="1">
         <v>43282</v>
@@ -3065,34 +3065,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" t="s">
-        <v>115</v>
-      </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K61" s="1">
         <v>43525</v>
@@ -3103,34 +3103,34 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
-      </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K62" s="1">
         <v>43282</v>
@@ -3141,34 +3141,34 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="B63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" t="s">
-        <v>121</v>
-      </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K63" s="1">
         <v>43282</v>
@@ -3179,34 +3179,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" t="s">
         <v>122</v>
       </c>
-      <c r="B64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
-      </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K64" s="1">
         <v>43282</v>
@@ -3217,34 +3217,34 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
       </c>
-      <c r="B65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" t="s">
-        <v>127</v>
-      </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K65" s="1">
         <v>43282</v>
@@ -3255,34 +3255,34 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" t="s">
         <v>128</v>
       </c>
-      <c r="B66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K66" s="1">
         <v>43282</v>
@@ -3293,34 +3293,34 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="B67" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" t="s">
-        <v>133</v>
-      </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K67" s="1">
         <v>43282</v>
@@ -3331,34 +3331,34 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
-      </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K68" s="1">
         <v>43282</v>
@@ -3369,34 +3369,34 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
         <v>137</v>
       </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>139</v>
-      </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K69" s="1">
         <v>43497</v>
@@ -3407,34 +3407,34 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
         <v>141</v>
       </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>143</v>
-      </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K70" s="1">
         <v>43344</v>
@@ -3445,34 +3445,34 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" t="s">
         <v>141</v>
       </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" t="s">
-        <v>143</v>
-      </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K71" s="1">
         <v>43405</v>
@@ -3483,34 +3483,34 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
         <v>140</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" t="s">
         <v>141</v>
       </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>142</v>
-      </c>
-      <c r="F72" t="s">
-        <v>143</v>
-      </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K72" s="1">
         <v>43435</v>
@@ -3521,34 +3521,34 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
         <v>140</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F73" t="s">
         <v>141</v>
       </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" t="s">
-        <v>143</v>
-      </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K73" s="1">
         <v>43497</v>
@@ -3559,34 +3559,34 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="s">
         <v>141</v>
       </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>142</v>
-      </c>
-      <c r="F74" t="s">
-        <v>143</v>
-      </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K74" s="1">
         <v>43617</v>
